--- a/Code/Results/Cases/Case_3_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.65315734701174</v>
+        <v>16.48560822670832</v>
       </c>
       <c r="C2">
-        <v>13.63007944076009</v>
+        <v>13.14420653597452</v>
       </c>
       <c r="D2">
-        <v>4.680159418182583</v>
+        <v>4.269846445367235</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.9244243561244</v>
+        <v>20.41721901048637</v>
       </c>
       <c r="G2">
-        <v>17.41663839661128</v>
+        <v>22.10947758239378</v>
       </c>
       <c r="H2">
-        <v>7.259649426241258</v>
+        <v>12.61642110207039</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.104386379039227</v>
+        <v>10.64346660949809</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.41019665694581</v>
+        <v>18.31204254687029</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.02175624648324</v>
+        <v>15.74963793196334</v>
       </c>
       <c r="C3">
-        <v>13.23906006128277</v>
+        <v>13.02269654296349</v>
       </c>
       <c r="D3">
-        <v>4.477310135869295</v>
+        <v>4.19332347410278</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.58124881612819</v>
+        <v>20.47597134890049</v>
       </c>
       <c r="G3">
-        <v>16.94184164220766</v>
+        <v>22.19999390981196</v>
       </c>
       <c r="H3">
-        <v>7.339520253367785</v>
+        <v>12.67831197238196</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.81049190266835</v>
+        <v>10.61508727954655</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.4167682137201</v>
+        <v>18.41327403191698</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.96055952536327</v>
+        <v>15.27978942141904</v>
       </c>
       <c r="C4">
-        <v>12.99634223372968</v>
+        <v>12.94900655043707</v>
       </c>
       <c r="D4">
-        <v>4.347714614393936</v>
+        <v>4.145233317719673</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.38932202524078</v>
+        <v>20.51990974962818</v>
       </c>
       <c r="G4">
-        <v>16.683043322594</v>
+        <v>22.2675518785262</v>
       </c>
       <c r="H4">
-        <v>7.396052134269921</v>
+        <v>12.71908081149453</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.629395943938552</v>
+        <v>10.59981703790943</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.43900654105007</v>
+        <v>18.4812157299647</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.51307909317208</v>
+        <v>15.08403621133034</v>
       </c>
       <c r="C5">
-        <v>12.89689452145059</v>
+        <v>12.91923511180788</v>
       </c>
       <c r="D5">
-        <v>4.293680154123641</v>
+        <v>4.125374280529976</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.31583345258405</v>
+        <v>20.53978218561496</v>
       </c>
       <c r="G5">
-        <v>16.58577994073521</v>
+        <v>22.2980681024273</v>
       </c>
       <c r="H5">
-        <v>7.420881682567317</v>
+        <v>12.7363896453358</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.555540825767372</v>
+        <v>10.59414064662122</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.45241699136373</v>
+        <v>18.5103510506312</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.43786535106979</v>
+        <v>15.05128005296383</v>
       </c>
       <c r="C6">
-        <v>12.88035256838674</v>
+        <v>12.91430794362724</v>
       </c>
       <c r="D6">
-        <v>4.284635364416527</v>
+        <v>4.122061360668447</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.30391546932889</v>
+        <v>20.54320048032119</v>
       </c>
       <c r="G6">
-        <v>16.5701224671274</v>
+        <v>22.3033148126474</v>
       </c>
       <c r="H6">
-        <v>7.425110285340621</v>
+        <v>12.73930573141857</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.543277024223976</v>
+        <v>10.59323120640068</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.45489960358163</v>
+        <v>18.51527625404389</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.95458560924338</v>
+        <v>15.27716645095815</v>
       </c>
       <c r="C7">
-        <v>12.99500305711735</v>
+        <v>12.94860396296135</v>
       </c>
       <c r="D7">
-        <v>4.346990774217745</v>
+        <v>4.144966530806118</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.38831182854532</v>
+        <v>20.52016980560385</v>
       </c>
       <c r="G7">
-        <v>16.68169848497934</v>
+        <v>22.26795137845429</v>
       </c>
       <c r="H7">
-        <v>7.3963798542447</v>
+        <v>12.71931143060232</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.628399994125462</v>
+        <v>10.59973826635853</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.43917010030176</v>
+        <v>18.48160280229223</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.1029576063696</v>
+        <v>16.23570107714414</v>
       </c>
       <c r="C8">
-        <v>13.49587298833337</v>
+        <v>13.10213578577606</v>
       </c>
       <c r="D8">
-        <v>4.611289170085727</v>
+        <v>4.243699943344268</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.80220633774751</v>
+        <v>20.43583866973199</v>
       </c>
       <c r="G8">
-        <v>17.24613629042685</v>
+        <v>22.13818551777102</v>
       </c>
       <c r="H8">
-        <v>7.285577774385521</v>
+        <v>12.63718621640669</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.003245200522716</v>
+        <v>10.63323705862205</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.40854851618158</v>
+        <v>18.34574274090117</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.84716489978991</v>
+        <v>17.96437728297153</v>
       </c>
       <c r="C9">
-        <v>14.4522804455697</v>
+        <v>13.40928987386695</v>
       </c>
       <c r="D9">
-        <v>5.087903586784805</v>
+        <v>4.427887028261143</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.76173861405463</v>
+        <v>20.33328076712987</v>
       </c>
       <c r="G9">
-        <v>18.6111003053164</v>
+        <v>21.97987289322772</v>
       </c>
       <c r="H9">
-        <v>7.132062391481105</v>
+        <v>12.49813149256326</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.729098691842999</v>
+        <v>10.71580401432846</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.50274483878283</v>
+        <v>18.12549918310982</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.31738472278584</v>
+        <v>19.13295645111236</v>
       </c>
       <c r="C10">
-        <v>15.13336157392806</v>
+        <v>13.63704245621771</v>
       </c>
       <c r="D10">
-        <v>5.410909736796802</v>
+        <v>4.556624795123002</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.55406453489208</v>
+        <v>20.29672312591429</v>
       </c>
       <c r="G10">
-        <v>19.76599612840032</v>
+        <v>21.92352105270185</v>
       </c>
       <c r="H10">
-        <v>7.064433910880156</v>
+        <v>12.40942067038008</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.252021485382512</v>
+        <v>10.78642520074493</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.67848539129159</v>
+        <v>17.99221011865682</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.38139754923677</v>
+        <v>19.64103167021725</v>
       </c>
       <c r="C11">
-        <v>15.43748689753495</v>
+        <v>13.7407623821138</v>
       </c>
       <c r="D11">
-        <v>5.551693675955163</v>
+        <v>4.613599187904573</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.93264899235413</v>
+        <v>20.2885976310612</v>
       </c>
       <c r="G11">
-        <v>20.32268024482151</v>
+        <v>21.91113883543983</v>
       </c>
       <c r="H11">
-        <v>7.044920929419046</v>
+        <v>12.37199521777546</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.486882632863027</v>
+        <v>10.82063482835771</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.78391971283652</v>
+        <v>17.93784591910553</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.77582690786374</v>
+        <v>19.82994552696034</v>
       </c>
       <c r="C12">
-        <v>15.55175956941084</v>
+        <v>13.78002625349406</v>
       </c>
       <c r="D12">
-        <v>5.604104123421673</v>
+        <v>4.634932878021933</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.0785429933703</v>
+        <v>20.28674845102175</v>
       </c>
       <c r="G12">
-        <v>20.53782596724287</v>
+        <v>21.90837071397378</v>
       </c>
       <c r="H12">
-        <v>7.039274797070898</v>
+        <v>12.35824539936159</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.575333880814902</v>
+        <v>10.83388121672248</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.82767730846326</v>
+        <v>17.91816761222406</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.69125547441732</v>
+        <v>19.78941590028172</v>
       </c>
       <c r="C13">
-        <v>15.52718967275459</v>
+        <v>13.7715710951149</v>
       </c>
       <c r="D13">
-        <v>5.592856906160732</v>
+        <v>4.630349211762272</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.04701069761595</v>
+        <v>20.28709203744933</v>
       </c>
       <c r="G13">
-        <v>20.49129991948507</v>
+        <v>21.90888124424453</v>
       </c>
       <c r="H13">
-        <v>7.04041124348887</v>
+        <v>12.36118786479451</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.556306620586968</v>
+        <v>10.83101551270869</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.81808046724125</v>
+        <v>17.9223651885765</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.41401706155945</v>
+        <v>19.6566440563719</v>
       </c>
       <c r="C14">
-        <v>15.44690645707996</v>
+        <v>13.74399306206677</v>
       </c>
       <c r="D14">
-        <v>5.556023660596794</v>
+        <v>4.615359229255097</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.94460146620816</v>
+        <v>20.28842086883958</v>
       </c>
       <c r="G14">
-        <v>20.34029431289747</v>
+        <v>21.91087252993233</v>
       </c>
       <c r="H14">
-        <v>7.044420757379889</v>
+        <v>12.37085554012937</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.494169557577859</v>
+        <v>10.82171881128051</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.7874419978224</v>
+        <v>17.93620873272608</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.24309790345893</v>
+        <v>19.57486113223653</v>
       </c>
       <c r="C15">
-        <v>15.39761238650918</v>
+        <v>13.72709822318894</v>
       </c>
       <c r="D15">
-        <v>5.53334442536665</v>
+        <v>4.606145645578152</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.8822003601767</v>
+        <v>20.28939482786783</v>
       </c>
       <c r="G15">
-        <v>20.24835968113076</v>
+        <v>21.91234278525461</v>
       </c>
       <c r="H15">
-        <v>7.047107463920588</v>
+        <v>12.37683231159149</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.456044236787408</v>
+        <v>10.81606209740294</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.76917867426326</v>
+        <v>17.94480677850904</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.24665571928668</v>
+        <v>19.09927024572125</v>
       </c>
       <c r="C16">
-        <v>15.11336504673297</v>
+        <v>13.63026392191507</v>
       </c>
       <c r="D16">
-        <v>5.401583849926253</v>
+        <v>4.552868298571943</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.52968171106336</v>
+        <v>20.29742572352128</v>
       </c>
       <c r="G16">
-        <v>19.73023179720844</v>
+        <v>21.92459828896759</v>
       </c>
       <c r="H16">
-        <v>7.065946146354044</v>
+        <v>12.41192555711747</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.236607358919992</v>
+        <v>10.78423080332345</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.67212262126473</v>
+        <v>17.99588968056576</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.62014638659913</v>
+        <v>18.80140954565891</v>
       </c>
       <c r="C17">
-        <v>14.93747279590158</v>
+        <v>13.57086767886251</v>
       </c>
       <c r="D17">
-        <v>5.319163947835496</v>
+        <v>4.519768033859395</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.31801623576413</v>
+        <v>20.30453451859366</v>
       </c>
       <c r="G17">
-        <v>19.42028256485951</v>
+        <v>21.93552257806825</v>
       </c>
       <c r="H17">
-        <v>7.080472649634324</v>
+        <v>12.4342052447783</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.101176610487393</v>
+        <v>10.76523169146864</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.61923518472032</v>
+        <v>18.02883796986348</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.25416929983016</v>
+        <v>18.62787926468965</v>
       </c>
       <c r="C18">
-        <v>14.83577123196393</v>
+        <v>13.53671698998981</v>
       </c>
       <c r="D18">
-        <v>5.271179748932306</v>
+        <v>4.500580779670303</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.19798511034051</v>
+        <v>20.30942361309434</v>
       </c>
       <c r="G18">
-        <v>19.24496557494656</v>
+        <v>21.94305261161799</v>
       </c>
       <c r="H18">
-        <v>7.089879223597063</v>
+        <v>12.44729560574974</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.022998632790262</v>
+        <v>10.75450052126731</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.59120616340159</v>
+        <v>18.04837869172579</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.12928670930902</v>
+        <v>18.56874892594861</v>
       </c>
       <c r="C19">
-        <v>14.80124768610085</v>
+        <v>13.52515718392328</v>
       </c>
       <c r="D19">
-        <v>5.25483434529719</v>
+        <v>4.494059140946462</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.15764128055968</v>
+        <v>20.31121626181822</v>
       </c>
       <c r="G19">
-        <v>19.18611918209982</v>
+        <v>21.9458157615887</v>
       </c>
       <c r="H19">
-        <v>7.093240942432496</v>
+        <v>12.45177509050719</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.996482261417864</v>
+        <v>10.75090112745267</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.58212116897885</v>
+        <v>18.0550959277483</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.68742090964408</v>
+        <v>18.83334670545946</v>
       </c>
       <c r="C20">
-        <v>14.95625255164347</v>
+        <v>13.57718943232286</v>
       </c>
       <c r="D20">
-        <v>5.3279976873065</v>
+        <v>4.52330711476987</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.34037164116652</v>
+        <v>20.30369490787388</v>
       </c>
       <c r="G20">
-        <v>19.45297226920121</v>
+        <v>21.93423052453667</v>
       </c>
       <c r="H20">
-        <v>7.078816577354711</v>
+        <v>12.43180499470789</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.115623016761656</v>
+        <v>10.76723388458837</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.62461647021493</v>
+        <v>18.02526948401981</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.49567831252288</v>
+        <v>19.69573762301156</v>
       </c>
       <c r="C21">
-        <v>15.47051234937512</v>
+        <v>13.75209397053217</v>
       </c>
       <c r="D21">
-        <v>5.566867052940786</v>
+        <v>4.61976879643507</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.97461342291604</v>
+        <v>20.28799720591589</v>
       </c>
       <c r="G21">
-        <v>20.38453175924139</v>
+        <v>21.91023540703102</v>
       </c>
       <c r="H21">
-        <v>7.043194747093824</v>
+        <v>12.36800443696623</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.512434253168124</v>
+        <v>10.82444161798283</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.79633603574284</v>
+        <v>17.93211784634183</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.62804504928673</v>
+        <v>20.23902159599027</v>
       </c>
       <c r="C22">
-        <v>15.80137930522199</v>
+        <v>13.86631751835618</v>
       </c>
       <c r="D22">
-        <v>5.717723129683158</v>
+        <v>4.68140038260847</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.40385384975027</v>
+        <v>20.28489550662889</v>
       </c>
       <c r="G22">
-        <v>21.0185959221317</v>
+        <v>21.90575370343856</v>
       </c>
       <c r="H22">
-        <v>7.030133763534331</v>
+        <v>12.32876962472159</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.768926882382159</v>
+        <v>10.86352798844736</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.9309626952963</v>
+        <v>17.87653477960297</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.02817001006197</v>
+        <v>19.95095091557137</v>
       </c>
       <c r="C23">
-        <v>15.62528950953119</v>
+        <v>13.80537167256642</v>
       </c>
       <c r="D23">
-        <v>5.637694048990025</v>
+        <v>4.648639627525849</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.1734375169312</v>
+        <v>20.28589477568115</v>
       </c>
       <c r="G23">
-        <v>20.67792661788394</v>
+        <v>21.90711662625742</v>
       </c>
       <c r="H23">
-        <v>7.036127342028302</v>
+        <v>12.34948428238753</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.632306562745446</v>
+        <v>10.84251415856439</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.85701076135534</v>
+        <v>17.90571366403359</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.65702413495284</v>
+        <v>18.8189150286555</v>
       </c>
       <c r="C24">
-        <v>14.94776402113618</v>
+        <v>13.57433137468799</v>
       </c>
       <c r="D24">
-        <v>5.324005820944958</v>
+        <v>4.521707585797827</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.33025959155781</v>
+        <v>20.30407199760102</v>
       </c>
       <c r="G24">
-        <v>19.43818428038839</v>
+        <v>21.93481077096476</v>
       </c>
       <c r="H24">
-        <v>7.079562010684483</v>
+        <v>12.43288927106605</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.109092779952032</v>
+        <v>10.76632809546731</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.62217620112531</v>
+        <v>18.02688093325222</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.8839289849408</v>
+        <v>17.51396238774664</v>
       </c>
       <c r="C25">
-        <v>14.19695411129772</v>
+        <v>13.32571282970673</v>
       </c>
       <c r="D25">
-        <v>4.963631528152019</v>
+        <v>4.379158222087086</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>15.48655851441452</v>
+        <v>20.35424471368938</v>
       </c>
       <c r="G25">
-        <v>18.21461270326339</v>
+        <v>22.01225844959903</v>
       </c>
       <c r="H25">
-        <v>7.166135697963695</v>
+        <v>12.53339042960087</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.534253803024281</v>
+        <v>10.69169270539574</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.4594060679436</v>
+        <v>18.18009856426754</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.48560822670832</v>
+        <v>24.65315734701166</v>
       </c>
       <c r="C2">
-        <v>13.14420653597452</v>
+        <v>13.63007944076023</v>
       </c>
       <c r="D2">
-        <v>4.269846445367235</v>
+        <v>4.680159418182569</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.41721901048637</v>
+        <v>14.92442435612451</v>
       </c>
       <c r="G2">
-        <v>22.10947758239378</v>
+        <v>17.41663839661128</v>
       </c>
       <c r="H2">
-        <v>12.61642110207039</v>
+        <v>7.259649426241312</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.64346660949809</v>
+        <v>8.104386379039221</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.31204254687029</v>
+        <v>11.41019665694592</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.74963793196334</v>
+        <v>23.02175624648329</v>
       </c>
       <c r="C3">
-        <v>13.02269654296349</v>
+        <v>13.23906006128269</v>
       </c>
       <c r="D3">
-        <v>4.19332347410278</v>
+        <v>4.477310135869399</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.47597134890049</v>
+        <v>14.58124881612809</v>
       </c>
       <c r="G3">
-        <v>22.19999390981196</v>
+        <v>16.94184164220759</v>
       </c>
       <c r="H3">
-        <v>12.67831197238196</v>
+        <v>7.339520253367731</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.61508727954655</v>
+        <v>7.810491902668387</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.41327403191698</v>
+        <v>11.41676821372003</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.27978942141904</v>
+        <v>21.96055952536321</v>
       </c>
       <c r="C4">
-        <v>12.94900655043707</v>
+        <v>12.99634223372987</v>
       </c>
       <c r="D4">
-        <v>4.145233317719673</v>
+        <v>4.347714614393749</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.51990974962818</v>
+        <v>14.38932202524091</v>
       </c>
       <c r="G4">
-        <v>22.2675518785262</v>
+        <v>16.68304332259404</v>
       </c>
       <c r="H4">
-        <v>12.71908081149453</v>
+        <v>7.39605213426998</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.59981703790943</v>
+        <v>7.629395943938566</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.4812157299647</v>
+        <v>11.43900654105014</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.08403621133034</v>
+        <v>21.5130790931721</v>
       </c>
       <c r="C5">
-        <v>12.91923511180788</v>
+        <v>12.89689452145034</v>
       </c>
       <c r="D5">
-        <v>4.125374280529976</v>
+        <v>4.293680154123729</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.53978218561496</v>
+        <v>14.31583345258399</v>
       </c>
       <c r="G5">
-        <v>22.2980681024273</v>
+        <v>16.58577994073531</v>
       </c>
       <c r="H5">
-        <v>12.7363896453358</v>
+        <v>7.420881682567201</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.59414064662122</v>
+        <v>7.555540825767391</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.5103510506312</v>
+        <v>11.45241699136369</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.05128005296383</v>
+        <v>21.43786535106979</v>
       </c>
       <c r="C6">
-        <v>12.91430794362724</v>
+        <v>12.88035256838675</v>
       </c>
       <c r="D6">
-        <v>4.122061360668447</v>
+        <v>4.28463536441654</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.54320048032119</v>
+        <v>14.30391546932891</v>
       </c>
       <c r="G6">
-        <v>22.3033148126474</v>
+        <v>16.57012246712743</v>
       </c>
       <c r="H6">
-        <v>12.73930573141857</v>
+        <v>7.425110285340625</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.59323120640068</v>
+        <v>7.543277024223971</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.51527625404389</v>
+        <v>11.45489960358164</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.27716645095815</v>
+        <v>21.95458560924333</v>
       </c>
       <c r="C7">
-        <v>12.94860396296135</v>
+        <v>12.99500305711737</v>
       </c>
       <c r="D7">
-        <v>4.144966530806118</v>
+        <v>4.346990774217746</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.52016980560385</v>
+        <v>14.38831182854543</v>
       </c>
       <c r="G7">
-        <v>22.26795137845429</v>
+        <v>16.68169848497945</v>
       </c>
       <c r="H7">
-        <v>12.71931143060232</v>
+        <v>7.396379854244752</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.59973826635853</v>
+        <v>7.628399994125519</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.48160280229223</v>
+        <v>11.43917010030188</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.23570107714414</v>
+        <v>24.10295760636962</v>
       </c>
       <c r="C8">
-        <v>13.10213578577606</v>
+        <v>13.49587298833337</v>
       </c>
       <c r="D8">
-        <v>4.243699943344268</v>
+        <v>4.61128917008585</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.43583866973199</v>
+        <v>14.80220633774748</v>
       </c>
       <c r="G8">
-        <v>22.13818551777102</v>
+        <v>17.24613629042683</v>
       </c>
       <c r="H8">
-        <v>12.63718621640669</v>
+        <v>7.285577774385561</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.63323705862205</v>
+        <v>8.003245200522727</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.34574274090117</v>
+        <v>11.40854851618162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.96437728297153</v>
+        <v>27.84716489978993</v>
       </c>
       <c r="C9">
-        <v>13.40928987386695</v>
+        <v>14.45228044556957</v>
       </c>
       <c r="D9">
-        <v>4.427887028261143</v>
+        <v>5.087903586784799</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.33328076712987</v>
+        <v>15.76173861405456</v>
       </c>
       <c r="G9">
-        <v>21.97987289322772</v>
+        <v>18.61110030531641</v>
       </c>
       <c r="H9">
-        <v>12.49813149256326</v>
+        <v>7.132062391481011</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.71580401432846</v>
+        <v>8.729098691842987</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.12549918310982</v>
+        <v>11.50274483878274</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.13295645111236</v>
+        <v>30.31738472278584</v>
       </c>
       <c r="C10">
-        <v>13.63704245621771</v>
+        <v>15.13336157392819</v>
       </c>
       <c r="D10">
-        <v>4.556624795123002</v>
+        <v>5.41090973679676</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.29672312591429</v>
+        <v>16.55406453489209</v>
       </c>
       <c r="G10">
-        <v>21.92352105270185</v>
+        <v>19.76599612840034</v>
       </c>
       <c r="H10">
-        <v>12.40942067038008</v>
+        <v>7.064433910880211</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.78642520074493</v>
+        <v>9.252021485382453</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.99221011865682</v>
+        <v>11.67848539129162</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.64103167021725</v>
+        <v>31.38139754923677</v>
       </c>
       <c r="C11">
-        <v>13.7407623821138</v>
+        <v>15.43748689753501</v>
       </c>
       <c r="D11">
-        <v>4.613599187904573</v>
+        <v>5.551693675955211</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.2885976310612</v>
+        <v>16.93264899235418</v>
       </c>
       <c r="G11">
-        <v>21.91113883543983</v>
+        <v>20.32268024482159</v>
       </c>
       <c r="H11">
-        <v>12.37199521777546</v>
+        <v>7.044920929419058</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.82063482835771</v>
+        <v>9.486882632863018</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.93784591910553</v>
+        <v>11.78391971283656</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.82994552696034</v>
+        <v>31.77582690786378</v>
       </c>
       <c r="C12">
-        <v>13.78002625349406</v>
+        <v>15.55175956941082</v>
       </c>
       <c r="D12">
-        <v>4.634932878021933</v>
+        <v>5.60410412342177</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.28674845102175</v>
+        <v>17.07854299337027</v>
       </c>
       <c r="G12">
-        <v>21.90837071397378</v>
+        <v>20.53782596724292</v>
       </c>
       <c r="H12">
-        <v>12.35824539936159</v>
+        <v>7.039274797070812</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.83388121672248</v>
+        <v>9.575333880814894</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.91816761222406</v>
+        <v>11.82767730846321</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.78941590028172</v>
+        <v>31.69125547441729</v>
       </c>
       <c r="C13">
-        <v>13.7715710951149</v>
+        <v>15.52718967275461</v>
       </c>
       <c r="D13">
-        <v>4.630349211762272</v>
+        <v>5.592856906160735</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.28709203744933</v>
+        <v>17.04701069761593</v>
       </c>
       <c r="G13">
-        <v>21.90888124424453</v>
+        <v>20.4912999194851</v>
       </c>
       <c r="H13">
-        <v>12.36118786479451</v>
+        <v>7.04041124348887</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.83101551270869</v>
+        <v>9.55630662058697</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.9223651885765</v>
+        <v>11.81808046724123</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.6566440563719</v>
+        <v>31.41401706155945</v>
       </c>
       <c r="C14">
-        <v>13.74399306206677</v>
+        <v>15.44690645708004</v>
       </c>
       <c r="D14">
-        <v>4.615359229255097</v>
+        <v>5.556023660596781</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.28842086883958</v>
+        <v>16.94460146620814</v>
       </c>
       <c r="G14">
-        <v>21.91087252993233</v>
+        <v>20.34029431289746</v>
       </c>
       <c r="H14">
-        <v>12.37085554012937</v>
+        <v>7.044420757379856</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.82171881128051</v>
+        <v>9.494169557577871</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.93620873272608</v>
+        <v>11.78744199782233</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.57486113223653</v>
+        <v>31.24309790345896</v>
       </c>
       <c r="C15">
-        <v>13.72709822318894</v>
+        <v>15.39761238650934</v>
       </c>
       <c r="D15">
-        <v>4.606145645578152</v>
+        <v>5.533344425366622</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.28939482786783</v>
+        <v>16.8822003601767</v>
       </c>
       <c r="G15">
-        <v>21.91234278525461</v>
+        <v>20.24835968113079</v>
       </c>
       <c r="H15">
-        <v>12.37683231159149</v>
+        <v>7.047107463920517</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.81606209740294</v>
+        <v>9.456044236787383</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.94480677850904</v>
+        <v>11.76917867426325</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.09927024572125</v>
+        <v>30.24665571928665</v>
       </c>
       <c r="C16">
-        <v>13.63026392191507</v>
+        <v>15.11336504673281</v>
       </c>
       <c r="D16">
-        <v>4.552868298571943</v>
+        <v>5.401583849926354</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.29742572352128</v>
+        <v>16.52968171106337</v>
       </c>
       <c r="G16">
-        <v>21.92459828896759</v>
+        <v>19.73023179720844</v>
       </c>
       <c r="H16">
-        <v>12.41192555711747</v>
+        <v>7.065946146354099</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.78423080332345</v>
+        <v>9.236607358919963</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.99588968056576</v>
+        <v>11.67212262126479</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.80140954565891</v>
+        <v>29.62014638659916</v>
       </c>
       <c r="C17">
-        <v>13.57086767886251</v>
+        <v>14.93747279590151</v>
       </c>
       <c r="D17">
-        <v>4.519768033859395</v>
+        <v>5.319163947835575</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.30453451859366</v>
+        <v>16.31801623576413</v>
       </c>
       <c r="G17">
-        <v>21.93552257806825</v>
+        <v>19.42028256485948</v>
       </c>
       <c r="H17">
-        <v>12.4342052447783</v>
+        <v>7.080472649634362</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.76523169146864</v>
+        <v>9.101176610487387</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.02883796986348</v>
+        <v>11.61923518472034</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.62787926468965</v>
+        <v>29.2541692998302</v>
       </c>
       <c r="C18">
-        <v>13.53671698998981</v>
+        <v>14.83577123196392</v>
       </c>
       <c r="D18">
-        <v>4.500580779670303</v>
+        <v>5.271179748932277</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.30942361309434</v>
+        <v>16.19798511034052</v>
       </c>
       <c r="G18">
-        <v>21.94305261161799</v>
+        <v>19.24496557494658</v>
       </c>
       <c r="H18">
-        <v>12.44729560574974</v>
+        <v>7.089879223597075</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.75450052126731</v>
+        <v>9.022998632790282</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.04837869172579</v>
+        <v>11.59120616340159</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.56874892594861</v>
+        <v>29.12928670930898</v>
       </c>
       <c r="C19">
-        <v>13.52515718392328</v>
+        <v>14.80124768610074</v>
       </c>
       <c r="D19">
-        <v>4.494059140946462</v>
+        <v>5.254834345297199</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.31121626181822</v>
+        <v>16.15764128055973</v>
       </c>
       <c r="G19">
-        <v>21.9458157615887</v>
+        <v>19.18611918209987</v>
       </c>
       <c r="H19">
-        <v>12.45177509050719</v>
+        <v>7.093240942432501</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.75090112745267</v>
+        <v>8.996482261417857</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.0550959277483</v>
+        <v>11.58212116897888</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.83334670545946</v>
+        <v>29.68742090964404</v>
       </c>
       <c r="C20">
-        <v>13.57718943232286</v>
+        <v>14.95625255164363</v>
       </c>
       <c r="D20">
-        <v>4.52330711476987</v>
+        <v>5.327997687306456</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.30369490787388</v>
+        <v>16.34037164116657</v>
       </c>
       <c r="G20">
-        <v>21.93423052453667</v>
+        <v>19.45297226920126</v>
       </c>
       <c r="H20">
-        <v>12.43180499470789</v>
+        <v>7.07881657735481</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.76723388458837</v>
+        <v>9.115623016761687</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.02526948401981</v>
+        <v>11.62461647021498</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.69573762301156</v>
+        <v>31.49567831252285</v>
       </c>
       <c r="C21">
-        <v>13.75209397053217</v>
+        <v>15.47051234937513</v>
       </c>
       <c r="D21">
-        <v>4.61976879643507</v>
+        <v>5.566867052940772</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.28799720591589</v>
+        <v>16.9746134229161</v>
       </c>
       <c r="G21">
-        <v>21.91023540703102</v>
+        <v>20.38453175924143</v>
       </c>
       <c r="H21">
-        <v>12.36800443696623</v>
+        <v>7.043194747093882</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.82444161798283</v>
+        <v>9.512434253168125</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.93211784634183</v>
+        <v>11.7963360357429</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.23902159599027</v>
+        <v>32.6280450492867</v>
       </c>
       <c r="C22">
-        <v>13.86631751835618</v>
+        <v>15.80137930522207</v>
       </c>
       <c r="D22">
-        <v>4.68140038260847</v>
+        <v>5.717723129683158</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.28489550662889</v>
+        <v>17.40385384975026</v>
       </c>
       <c r="G22">
-        <v>21.90575370343856</v>
+        <v>21.01859592213169</v>
       </c>
       <c r="H22">
-        <v>12.32876962472159</v>
+        <v>7.030133763534299</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.86352798844736</v>
+        <v>9.76892688238217</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.87653477960297</v>
+        <v>11.93096269529625</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.95095091557137</v>
+        <v>32.02817001006197</v>
       </c>
       <c r="C23">
-        <v>13.80537167256642</v>
+        <v>15.62528950953121</v>
       </c>
       <c r="D23">
-        <v>4.648639627525849</v>
+        <v>5.637694048990048</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.28589477568115</v>
+        <v>17.17343751693111</v>
       </c>
       <c r="G23">
-        <v>21.90711662625742</v>
+        <v>20.67792661788386</v>
       </c>
       <c r="H23">
-        <v>12.34948428238753</v>
+        <v>7.036127342028231</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.84251415856439</v>
+        <v>9.632306562745464</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.90571366403359</v>
+        <v>11.85701076135522</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.8189150286555</v>
+        <v>29.65702413495287</v>
       </c>
       <c r="C24">
-        <v>13.57433137468799</v>
+        <v>14.94776402113618</v>
       </c>
       <c r="D24">
-        <v>4.521707585797827</v>
+        <v>5.324005820944929</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.30407199760102</v>
+        <v>16.33025959155779</v>
       </c>
       <c r="G24">
-        <v>21.93481077096476</v>
+        <v>19.43818428038842</v>
       </c>
       <c r="H24">
-        <v>12.43288927106605</v>
+        <v>7.07956201068444</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.76632809546731</v>
+        <v>9.109092779952046</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.02688093325222</v>
+        <v>11.62217620112528</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.51396238774664</v>
+        <v>26.88392898494077</v>
       </c>
       <c r="C25">
-        <v>13.32571282970673</v>
+        <v>14.19695411129761</v>
       </c>
       <c r="D25">
-        <v>4.379158222087086</v>
+        <v>4.963631528152082</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.35424471368938</v>
+        <v>15.48655851441454</v>
       </c>
       <c r="G25">
-        <v>22.01225844959903</v>
+        <v>18.21461270326346</v>
       </c>
       <c r="H25">
-        <v>12.53339042960087</v>
+        <v>7.166135697963695</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.69169270539574</v>
+        <v>8.534253803024299</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.18009856426754</v>
+        <v>11.45940606794366</v>
       </c>
     </row>
   </sheetData>
